--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -474,13 +474,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.48</v>
+        <v>-4.06</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -493,19 +493,19 @@
         <v>2.01</v>
       </c>
       <c r="C3" t="n">
-        <v>1.74</v>
+        <v>17.89</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F3" t="n">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="G3" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +516,13 @@
         <v>3.02</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -535,19 +535,19 @@
         <v>4.03</v>
       </c>
       <c r="C5" t="n">
-        <v>2.57</v>
+        <v>15.19</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F5" t="n">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="G5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -558,13 +558,13 @@
         <v>5.04</v>
       </c>
       <c r="C6" t="n">
-        <v>2.83</v>
+        <v>19.72</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -577,16 +577,16 @@
         <v>6.05</v>
       </c>
       <c r="C7" t="n">
-        <v>3.41</v>
+        <v>15.27</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F7" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G7" t="n">
         <v>41</v>
@@ -600,13 +600,13 @@
         <v>7.06</v>
       </c>
       <c r="C8" t="n">
-        <v>4.42</v>
+        <v>9.98</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -619,19 +619,19 @@
         <v>8.07</v>
       </c>
       <c r="C9" t="n">
-        <v>5.11</v>
+        <v>24.06</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F9" t="n">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="G9" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -642,13 +642,13 @@
         <v>9.08</v>
       </c>
       <c r="C10" t="n">
-        <v>4.34</v>
+        <v>2.5</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -661,19 +661,19 @@
         <v>10.09</v>
       </c>
       <c r="C11" t="n">
-        <v>4.41</v>
+        <v>18.75</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F11" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G11" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -684,13 +684,13 @@
         <v>11.1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.88</v>
+        <v>23.36</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -703,19 +703,19 @@
         <v>12.11</v>
       </c>
       <c r="C13" t="n">
-        <v>3.93</v>
+        <v>2.43</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F13" t="n">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G13" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -726,13 +726,13 @@
         <v>13.12</v>
       </c>
       <c r="C14" t="n">
-        <v>7.01</v>
+        <v>28.87</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -745,19 +745,19 @@
         <v>14.13</v>
       </c>
       <c r="C15" t="n">
-        <v>9.470000000000001</v>
+        <v>20.48</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F15" t="n">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G15" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -768,13 +768,13 @@
         <v>15.14</v>
       </c>
       <c r="C16" t="n">
-        <v>7.74</v>
+        <v>19.64</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -787,19 +787,19 @@
         <v>16.15</v>
       </c>
       <c r="C17" t="n">
-        <v>8.48</v>
+        <v>18.91</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F17" t="n">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G17" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         <v>17.16</v>
       </c>
       <c r="C18" t="n">
-        <v>8.16</v>
+        <v>13.92</v>
       </c>
       <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -829,19 +829,19 @@
         <v>18.17</v>
       </c>
       <c r="C19" t="n">
-        <v>9.02</v>
+        <v>15.28</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F19" t="n">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="G19" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         <v>19.18</v>
       </c>
       <c r="C20" t="n">
-        <v>9.710000000000001</v>
+        <v>19.66</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -871,19 +871,19 @@
         <v>20.19</v>
       </c>
       <c r="C21" t="n">
-        <v>11.24</v>
+        <v>25.68</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F21" t="n">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="G21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         <v>21.2</v>
       </c>
       <c r="C22" t="n">
-        <v>11.62</v>
+        <v>11.78</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -913,19 +913,19 @@
         <v>22.21</v>
       </c>
       <c r="C23" t="n">
-        <v>12.3</v>
+        <v>21.37</v>
       </c>
       <c r="D23" t="n">
         <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F23" t="n">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="G23" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         <v>23.22</v>
       </c>
       <c r="C24" t="n">
-        <v>14.24</v>
+        <v>-6.32</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -955,19 +955,19 @@
         <v>24.23</v>
       </c>
       <c r="C25" t="n">
-        <v>11.28</v>
+        <v>21.76</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F25" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G25" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -978,13 +978,13 @@
         <v>25.24</v>
       </c>
       <c r="C26" t="n">
-        <v>12.19</v>
+        <v>24.01</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -997,19 +997,19 @@
         <v>26.25</v>
       </c>
       <c r="C27" t="n">
-        <v>15.01</v>
+        <v>35.24</v>
       </c>
       <c r="D27" t="n">
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F27" t="n">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G27" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -1020,13 +1020,13 @@
         <v>27.26</v>
       </c>
       <c r="C28" t="n">
-        <v>15.97</v>
+        <v>11.44</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1039,19 +1039,19 @@
         <v>28.27</v>
       </c>
       <c r="C29" t="n">
-        <v>13.21</v>
+        <v>24.84</v>
       </c>
       <c r="D29" t="n">
         <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F29" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G29" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
@@ -1062,13 +1062,13 @@
         <v>29.28</v>
       </c>
       <c r="C30" t="n">
-        <v>16.67</v>
+        <v>24.63</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1081,19 +1081,19 @@
         <v>30.29</v>
       </c>
       <c r="C31" t="n">
-        <v>15</v>
+        <v>24.8</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>-0</v>
       </c>
       <c r="E31" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F31" t="n">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="G31" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
@@ -1104,13 +1104,13 @@
         <v>31.3</v>
       </c>
       <c r="C32" t="n">
-        <v>16.2</v>
+        <v>21.05</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1123,19 +1123,19 @@
         <v>32.31</v>
       </c>
       <c r="C33" t="n">
-        <v>18.79</v>
+        <v>29.47</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F33" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G33" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -1146,13 +1146,13 @@
         <v>33.32</v>
       </c>
       <c r="C34" t="n">
-        <v>17.11</v>
+        <v>22.61</v>
       </c>
       <c r="D34" t="n">
         <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1165,19 +1165,19 @@
         <v>34.33</v>
       </c>
       <c r="C35" t="n">
-        <v>17.65</v>
+        <v>30.81</v>
       </c>
       <c r="D35" t="n">
         <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F35" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G35" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -1188,13 +1188,13 @@
         <v>35.34</v>
       </c>
       <c r="C36" t="n">
-        <v>17.76</v>
+        <v>10.07</v>
       </c>
       <c r="D36" t="n">
         <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1207,19 +1207,19 @@
         <v>36.35</v>
       </c>
       <c r="C37" t="n">
-        <v>18.23</v>
+        <v>32.33</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>96</v>
       </c>
       <c r="F37" t="n">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="G37" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
@@ -1230,13 +1230,13 @@
         <v>37.36</v>
       </c>
       <c r="C38" t="n">
-        <v>19.76</v>
+        <v>35.9</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1249,19 +1249,19 @@
         <v>38.37</v>
       </c>
       <c r="C39" t="n">
-        <v>19.79</v>
+        <v>34.38</v>
       </c>
       <c r="D39" t="n">
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G39" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -1272,10 +1272,10 @@
         <v>39.38</v>
       </c>
       <c r="C40" t="n">
-        <v>20.17</v>
+        <v>28.04</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
         <v>76</v>
@@ -1291,19 +1291,19 @@
         <v>40.39</v>
       </c>
       <c r="C41" t="n">
-        <v>22.06</v>
+        <v>35.26</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F41" t="n">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
@@ -1314,13 +1314,13 @@
         <v>41.4</v>
       </c>
       <c r="C42" t="n">
-        <v>20.87</v>
+        <v>12.16</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -1333,16 +1333,16 @@
         <v>42.41</v>
       </c>
       <c r="C43" t="n">
-        <v>20.67</v>
+        <v>29.63</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F43" t="n">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G43" t="n">
         <v>37</v>
@@ -1356,13 +1356,13 @@
         <v>43.42</v>
       </c>
       <c r="C44" t="n">
-        <v>21.85</v>
+        <v>41.22</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -1375,19 +1375,19 @@
         <v>44.43</v>
       </c>
       <c r="C45" t="n">
-        <v>23.41</v>
+        <v>39.56</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="n">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="G45" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
@@ -1398,13 +1398,13 @@
         <v>45.44</v>
       </c>
       <c r="C46" t="n">
-        <v>22</v>
+        <v>29.9</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -1417,19 +1417,19 @@
         <v>46.45</v>
       </c>
       <c r="C47" t="n">
-        <v>22.27</v>
+        <v>45.33</v>
       </c>
       <c r="D47" t="n">
         <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F47" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="G47" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
@@ -1440,13 +1440,13 @@
         <v>47.46</v>
       </c>
       <c r="C48" t="n">
-        <v>23.91</v>
+        <v>27.66</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -1459,19 +1459,19 @@
         <v>48.47</v>
       </c>
       <c r="C49" t="n">
-        <v>25.61</v>
+        <v>28.3</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F49" t="n">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G49" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50">
@@ -1482,13 +1482,13 @@
         <v>49.48</v>
       </c>
       <c r="C50" t="n">
-        <v>23.98</v>
+        <v>28.61</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -1501,16 +1501,16 @@
         <v>50.49</v>
       </c>
       <c r="C51" t="n">
-        <v>26.13</v>
+        <v>36.99</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G51" t="n">
         <v>33</v>
@@ -1524,10 +1524,10 @@
         <v>51.51</v>
       </c>
       <c r="C52" t="n">
-        <v>26.21</v>
+        <v>47.91</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
         <v>361</v>
@@ -1543,19 +1543,19 @@
         <v>52.52</v>
       </c>
       <c r="C53" t="n">
-        <v>28.64</v>
+        <v>22.81</v>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F53" t="n">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G53" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
@@ -1566,13 +1566,13 @@
         <v>53.53</v>
       </c>
       <c r="C54" t="n">
-        <v>26.22</v>
+        <v>44.32</v>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -1585,19 +1585,19 @@
         <v>54.54</v>
       </c>
       <c r="C55" t="n">
-        <v>27.93</v>
+        <v>31.18</v>
       </c>
       <c r="D55" t="n">
         <v>3</v>
       </c>
       <c r="E55" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F55" t="n">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="G55" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56">
@@ -1608,13 +1608,13 @@
         <v>55.55</v>
       </c>
       <c r="C56" t="n">
-        <v>27.6</v>
+        <v>33.15</v>
       </c>
       <c r="D56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -1627,19 +1627,19 @@
         <v>56.56</v>
       </c>
       <c r="C57" t="n">
-        <v>28.04</v>
+        <v>34.23</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F57" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G57" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58">
@@ -1650,13 +1650,13 @@
         <v>57.57</v>
       </c>
       <c r="C58" t="n">
-        <v>30.09</v>
+        <v>40.11</v>
       </c>
       <c r="D58" t="n">
         <v>4</v>
       </c>
       <c r="E58" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -1669,19 +1669,19 @@
         <v>58.58</v>
       </c>
       <c r="C59" t="n">
-        <v>29.06</v>
+        <v>56.74</v>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F59" t="n">
         <v>240</v>
       </c>
       <c r="G59" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
@@ -1692,13 +1692,13 @@
         <v>59.59</v>
       </c>
       <c r="C60" t="n">
-        <v>32.36</v>
+        <v>32.29</v>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -1711,19 +1711,19 @@
         <v>60.6</v>
       </c>
       <c r="C61" t="n">
-        <v>29.93</v>
+        <v>34.44</v>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F61" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G61" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -1734,10 +1734,10 @@
         <v>61.61</v>
       </c>
       <c r="C62" t="n">
-        <v>31.06</v>
+        <v>25.12</v>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
         <v>358</v>
@@ -1753,19 +1753,19 @@
         <v>62.62</v>
       </c>
       <c r="C63" t="n">
-        <v>31.25</v>
+        <v>46.45</v>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F63" t="n">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G63" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -1776,13 +1776,13 @@
         <v>63.63</v>
       </c>
       <c r="C64" t="n">
-        <v>30.35</v>
+        <v>39.57</v>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -1795,7 +1795,7 @@
         <v>64.64</v>
       </c>
       <c r="C65" t="n">
-        <v>32.74</v>
+        <v>32.05</v>
       </c>
       <c r="D65" t="n">
         <v>4</v>
@@ -1804,10 +1804,10 @@
         <v>359</v>
       </c>
       <c r="F65" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G65" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
@@ -1818,13 +1818,13 @@
         <v>65.65000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>33.14</v>
+        <v>28.86</v>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -1837,16 +1837,16 @@
         <v>66.66</v>
       </c>
       <c r="C67" t="n">
-        <v>34.33</v>
+        <v>43.9</v>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F67" t="n">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G67" t="n">
         <v>36</v>
@@ -1860,13 +1860,13 @@
         <v>67.67</v>
       </c>
       <c r="C68" t="n">
-        <v>36.6</v>
+        <v>54.59</v>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E68" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -1879,19 +1879,19 @@
         <v>68.68000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>34.28</v>
+        <v>52.79</v>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F69" t="n">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -1902,13 +1902,13 @@
         <v>69.69</v>
       </c>
       <c r="C70" t="n">
-        <v>37.38</v>
+        <v>48.02</v>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -1921,16 +1921,16 @@
         <v>70.7</v>
       </c>
       <c r="C71" t="n">
-        <v>36.43</v>
+        <v>33.11</v>
       </c>
       <c r="D71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E71" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F71" t="n">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G71" t="n">
         <v>33</v>
@@ -1944,13 +1944,13 @@
         <v>71.70999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>35.36</v>
+        <v>52.76</v>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -1963,19 +1963,19 @@
         <v>72.72</v>
       </c>
       <c r="C73" t="n">
-        <v>37.63</v>
+        <v>45.16</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E73" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F73" t="n">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G73" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
@@ -1986,13 +1986,13 @@
         <v>73.73</v>
       </c>
       <c r="C74" t="n">
-        <v>37.47</v>
+        <v>43.15</v>
       </c>
       <c r="D74" t="n">
         <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -2005,19 +2005,19 @@
         <v>74.73999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>38.26</v>
+        <v>62.22</v>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
         <v>357</v>
       </c>
       <c r="F75" t="n">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G75" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -2028,13 +2028,13 @@
         <v>75.75</v>
       </c>
       <c r="C76" t="n">
-        <v>38.86</v>
+        <v>42.75</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
@@ -2047,7 +2047,7 @@
         <v>76.76000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>40.06</v>
+        <v>44.08</v>
       </c>
       <c r="D77" t="n">
         <v>5</v>
@@ -2056,10 +2056,10 @@
         <v>358</v>
       </c>
       <c r="F77" t="n">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="G77" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -2070,13 +2070,13 @@
         <v>77.77</v>
       </c>
       <c r="C78" t="n">
-        <v>39.8</v>
+        <v>52.95</v>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
@@ -2089,19 +2089,19 @@
         <v>78.78</v>
       </c>
       <c r="C79" t="n">
-        <v>40.69</v>
+        <v>40.59</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F79" t="n">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G79" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -2112,13 +2112,13 @@
         <v>79.79000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>40.59</v>
+        <v>50.77</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
@@ -2131,19 +2131,19 @@
         <v>80.8</v>
       </c>
       <c r="C81" t="n">
-        <v>40.53</v>
+        <v>50.5</v>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F81" t="n">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="G81" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82">
@@ -2154,13 +2154,13 @@
         <v>81.81</v>
       </c>
       <c r="C82" t="n">
-        <v>41.33</v>
+        <v>41.78</v>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -2173,19 +2173,19 @@
         <v>82.81999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>42.73</v>
+        <v>51.52</v>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F83" t="n">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G83" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -2196,13 +2196,13 @@
         <v>83.83</v>
       </c>
       <c r="C84" t="n">
-        <v>41.54</v>
+        <v>65.67</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -2215,19 +2215,19 @@
         <v>84.84</v>
       </c>
       <c r="C85" t="n">
-        <v>43.68</v>
+        <v>53.3</v>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F85" t="n">
         <v>234</v>
       </c>
       <c r="G85" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
@@ -2238,13 +2238,13 @@
         <v>85.84999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>45.52</v>
+        <v>49.59</v>
       </c>
       <c r="D86" t="n">
         <v>5</v>
       </c>
       <c r="E86" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -2257,19 +2257,19 @@
         <v>86.86</v>
       </c>
       <c r="C87" t="n">
-        <v>44</v>
+        <v>51.64</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F87" t="n">
         <v>232</v>
       </c>
       <c r="G87" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
@@ -2280,13 +2280,13 @@
         <v>87.87</v>
       </c>
       <c r="C88" t="n">
-        <v>44.55</v>
+        <v>59.7</v>
       </c>
       <c r="D88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
@@ -2299,19 +2299,19 @@
         <v>88.88</v>
       </c>
       <c r="C89" t="n">
-        <v>43.61</v>
+        <v>58.14</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
         <v>358</v>
       </c>
       <c r="F89" t="n">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G89" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90">
@@ -2322,13 +2322,13 @@
         <v>89.89</v>
       </c>
       <c r="C90" t="n">
-        <v>46.55</v>
+        <v>53.59</v>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
@@ -2341,19 +2341,19 @@
         <v>90.90000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>47.78</v>
+        <v>57.41</v>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F91" t="n">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="G91" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
@@ -2364,13 +2364,13 @@
         <v>91.91</v>
       </c>
       <c r="C92" t="n">
-        <v>47.46</v>
+        <v>75.2</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
@@ -2383,19 +2383,19 @@
         <v>92.92</v>
       </c>
       <c r="C93" t="n">
-        <v>47.22</v>
+        <v>81.29000000000001</v>
       </c>
       <c r="D93" t="n">
         <v>5</v>
       </c>
       <c r="E93" t="n">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F93" t="n">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G93" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
@@ -2406,10 +2406,10 @@
         <v>93.93000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>46.95</v>
+        <v>64.67</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E94" t="n">
         <v>352</v>
@@ -2425,19 +2425,19 @@
         <v>94.94</v>
       </c>
       <c r="C95" t="n">
-        <v>47.66</v>
+        <v>53.91</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F95" t="n">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G95" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -2448,13 +2448,13 @@
         <v>95.95</v>
       </c>
       <c r="C96" t="n">
-        <v>50.77</v>
+        <v>51.86</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         <v>96.95999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>48.23</v>
+        <v>55.39</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E97" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F97" t="n">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G97" t="n">
         <v>31</v>
@@ -2490,13 +2490,13 @@
         <v>97.97</v>
       </c>
       <c r="C98" t="n">
-        <v>50.57</v>
+        <v>63.85</v>
       </c>
       <c r="D98" t="n">
         <v>5</v>
       </c>
       <c r="E98" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
@@ -2509,19 +2509,19 @@
         <v>98.98</v>
       </c>
       <c r="C99" t="n">
-        <v>49.65</v>
+        <v>67.67</v>
       </c>
       <c r="D99" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E99" t="n">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F99" t="n">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="G99" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
@@ -2532,13 +2532,13 @@
         <v>99.98999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>53.16</v>
+        <v>53.91</v>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
@@ -2551,19 +2551,19 @@
         <v>101</v>
       </c>
       <c r="C101" t="n">
-        <v>51.09</v>
+        <v>73.38</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
       </c>
       <c r="E101" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F101" t="n">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G101" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,32 +437,47 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>height</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>thickness</t>
+          <t>bed_number</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>bed_thickness</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>grainsize</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>paleocurrent</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>strike</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>dip</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>formation</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>d18O</t>
         </is>
       </c>
     </row>
@@ -471,41 +486,63 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>-4.06</v>
-      </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3.57</v>
       </c>
       <c r="E2" t="n">
-        <v>306</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>310</v>
+      </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="C3" t="n">
         <v>2.01</v>
       </c>
-      <c r="C3" t="n">
-        <v>17.89</v>
-      </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>0.45</v>
       </c>
       <c r="E3" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>239</v>
+      </c>
+      <c r="H3" t="n">
+        <v>41</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -513,41 +550,63 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C4" t="n">
         <v>3.02</v>
       </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>2.99</v>
       </c>
       <c r="E4" t="n">
-        <v>296</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>298</v>
+      </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="C5" t="n">
         <v>4.03</v>
       </c>
-      <c r="C5" t="n">
-        <v>15.19</v>
-      </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>291</v>
       </c>
-      <c r="F5" t="n">
-        <v>222</v>
-      </c>
       <c r="G5" t="n">
-        <v>42</v>
+        <v>243</v>
+      </c>
+      <c r="H5" t="n">
+        <v>41</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -555,41 +614,63 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="C6" t="n">
         <v>5.04</v>
       </c>
-      <c r="C6" t="n">
-        <v>19.72</v>
-      </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4.78</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>285</v>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C7" t="n">
         <v>6.05</v>
       </c>
-      <c r="C7" t="n">
-        <v>15.27</v>
-      </c>
       <c r="D7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" t="n">
-        <v>277</v>
-      </c>
       <c r="F7" t="n">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="G7" t="n">
-        <v>41</v>
+        <v>230</v>
+      </c>
+      <c r="H7" t="n">
+        <v>40</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="8">
@@ -597,41 +678,63 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="C8" t="n">
         <v>7.06</v>
       </c>
-      <c r="C8" t="n">
-        <v>9.98</v>
-      </c>
       <c r="D8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>274</v>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="C9" t="n">
         <v>8.07</v>
       </c>
-      <c r="C9" t="n">
-        <v>24.06</v>
-      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="E9" t="n">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="G9" t="n">
-        <v>38</v>
+        <v>218</v>
+      </c>
+      <c r="H9" t="n">
+        <v>40</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="10">
@@ -639,41 +742,63 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>33.54</v>
+      </c>
+      <c r="C10" t="n">
         <v>9.08</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.5</v>
-      </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2.97</v>
       </c>
       <c r="E10" t="n">
-        <v>262</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>258</v>
+      </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>27.85</v>
+      </c>
+      <c r="C11" t="n">
         <v>10.09</v>
       </c>
-      <c r="C11" t="n">
-        <v>18.75</v>
-      </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="E11" t="n">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="G11" t="n">
-        <v>41</v>
+        <v>223</v>
+      </c>
+      <c r="H11" t="n">
+        <v>43</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="12">
@@ -681,41 +806,63 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>27.01</v>
+      </c>
+      <c r="C12" t="n">
         <v>11.1</v>
       </c>
-      <c r="C12" t="n">
-        <v>23.36</v>
-      </c>
       <c r="D12" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
-        <v>246</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>247</v>
+      </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>31.66</v>
+      </c>
+      <c r="C13" t="n">
         <v>12.11</v>
       </c>
-      <c r="C13" t="n">
-        <v>2.43</v>
-      </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2.38</v>
       </c>
       <c r="E13" t="n">
-        <v>244</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="G13" t="n">
-        <v>40</v>
+        <v>224</v>
+      </c>
+      <c r="H13" t="n">
+        <v>42</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="14">
@@ -723,41 +870,63 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C14" t="n">
         <v>13.12</v>
       </c>
-      <c r="C14" t="n">
-        <v>28.87</v>
-      </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="E14" t="n">
-        <v>234</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>237</v>
+      </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="C15" t="n">
         <v>14.13</v>
       </c>
-      <c r="C15" t="n">
-        <v>20.48</v>
-      </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="E15" t="n">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G15" t="n">
-        <v>41</v>
+        <v>209</v>
+      </c>
+      <c r="H15" t="n">
+        <v>36</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="16">
@@ -765,41 +934,63 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>30.41</v>
+      </c>
+      <c r="C16" t="n">
         <v>15.14</v>
       </c>
-      <c r="C16" t="n">
-        <v>19.64</v>
-      </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="E16" t="n">
-        <v>227</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>220</v>
+      </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="C17" t="n">
         <v>16.15</v>
       </c>
-      <c r="C17" t="n">
-        <v>18.91</v>
-      </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="E17" t="n">
-        <v>217</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="G17" t="n">
-        <v>39</v>
+        <v>215</v>
+      </c>
+      <c r="H17" t="n">
+        <v>36</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="18">
@@ -807,41 +998,63 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>45.06</v>
+      </c>
+      <c r="C18" t="n">
         <v>17.16</v>
       </c>
-      <c r="C18" t="n">
-        <v>13.92</v>
-      </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="E18" t="n">
-        <v>213</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>210</v>
+      </c>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>43.98</v>
+      </c>
+      <c r="C19" t="n">
         <v>18.17</v>
       </c>
-      <c r="C19" t="n">
-        <v>15.28</v>
-      </c>
       <c r="D19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" t="n">
-        <v>202</v>
-      </c>
       <c r="F19" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19" t="n">
-        <v>39</v>
+        <v>222</v>
+      </c>
+      <c r="H19" t="n">
+        <v>38</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="20">
@@ -849,41 +1062,63 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>53.38</v>
+      </c>
+      <c r="C20" t="n">
         <v>19.18</v>
       </c>
-      <c r="C20" t="n">
-        <v>19.66</v>
-      </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>3.38</v>
       </c>
       <c r="E20" t="n">
-        <v>202</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>199</v>
+      </c>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>57.44</v>
+      </c>
+      <c r="C21" t="n">
         <v>20.19</v>
       </c>
-      <c r="C21" t="n">
-        <v>25.68</v>
-      </c>
       <c r="D21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="n">
-        <v>196</v>
-      </c>
       <c r="F21" t="n">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>226</v>
+      </c>
+      <c r="H21" t="n">
+        <v>37</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="22">
@@ -891,41 +1126,63 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>62.31</v>
+      </c>
+      <c r="C22" t="n">
         <v>21.2</v>
       </c>
-      <c r="C22" t="n">
-        <v>11.78</v>
-      </c>
       <c r="D22" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>185</v>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="C23" t="n">
         <v>22.21</v>
       </c>
-      <c r="C23" t="n">
-        <v>21.37</v>
-      </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>2.22</v>
       </c>
       <c r="E23" t="n">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="G23" t="n">
-        <v>41</v>
+        <v>230</v>
+      </c>
+      <c r="H23" t="n">
+        <v>38</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="24">
@@ -933,41 +1190,63 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>60.26</v>
+      </c>
+      <c r="C24" t="n">
         <v>23.22</v>
       </c>
-      <c r="C24" t="n">
-        <v>-6.32</v>
-      </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="E24" t="n">
-        <v>175</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>177</v>
+      </c>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>66.65000000000001</v>
+      </c>
+      <c r="C25" t="n">
         <v>24.23</v>
       </c>
-      <c r="C25" t="n">
-        <v>21.76</v>
-      </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>4.36</v>
       </c>
       <c r="E25" t="n">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="G25" t="n">
+        <v>234</v>
+      </c>
+      <c r="H25" t="n">
         <v>38</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="26">
@@ -975,41 +1254,63 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="C26" t="n">
         <v>25.24</v>
       </c>
-      <c r="C26" t="n">
-        <v>24.01</v>
-      </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1.18</v>
       </c>
       <c r="E26" t="n">
-        <v>160</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>161</v>
+      </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>60.93</v>
+      </c>
+      <c r="C27" t="n">
         <v>26.25</v>
       </c>
-      <c r="C27" t="n">
-        <v>35.24</v>
-      </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>-1.16</v>
       </c>
       <c r="E27" t="n">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="G27" t="n">
+        <v>255</v>
+      </c>
+      <c r="H27" t="n">
         <v>38</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="28">
@@ -1017,41 +1318,63 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>64.45999999999999</v>
+      </c>
+      <c r="C28" t="n">
         <v>27.26</v>
       </c>
-      <c r="C28" t="n">
-        <v>11.44</v>
-      </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>4.56</v>
       </c>
       <c r="E28" t="n">
-        <v>148</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>147</v>
+      </c>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>64.91</v>
+      </c>
+      <c r="C29" t="n">
         <v>28.27</v>
       </c>
-      <c r="C29" t="n">
-        <v>24.84</v>
-      </c>
       <c r="D29" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="E29" t="n">
         <v>2</v>
       </c>
-      <c r="E29" t="n">
-        <v>145</v>
-      </c>
       <c r="F29" t="n">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="G29" t="n">
-        <v>39</v>
+        <v>243</v>
+      </c>
+      <c r="H29" t="n">
+        <v>37</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="30">
@@ -1059,41 +1382,63 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>79.63</v>
+      </c>
+      <c r="C30" t="n">
         <v>29.28</v>
       </c>
-      <c r="C30" t="n">
-        <v>24.63</v>
-      </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>4.02</v>
       </c>
       <c r="E30" t="n">
-        <v>141</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>140</v>
+      </c>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="C31" t="n">
         <v>30.29</v>
       </c>
-      <c r="C31" t="n">
-        <v>24.8</v>
-      </c>
       <c r="D31" t="n">
-        <v>-0</v>
+        <v>3.23</v>
       </c>
       <c r="E31" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="G31" t="n">
-        <v>38</v>
+        <v>232</v>
+      </c>
+      <c r="H31" t="n">
+        <v>35</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="32">
@@ -1101,41 +1446,63 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>83.42</v>
+      </c>
+      <c r="C32" t="n">
         <v>31.3</v>
       </c>
-      <c r="C32" t="n">
-        <v>21.05</v>
-      </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>2.49</v>
       </c>
       <c r="E32" t="n">
-        <v>123</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>128</v>
+      </c>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>86.43000000000001</v>
+      </c>
+      <c r="C33" t="n">
         <v>32.31</v>
       </c>
-      <c r="C33" t="n">
-        <v>29.47</v>
-      </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="E33" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="G33" t="n">
+        <v>252</v>
+      </c>
+      <c r="H33" t="n">
         <v>37</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="34">
@@ -1143,41 +1510,63 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="C34" t="n">
         <v>33.32</v>
       </c>
-      <c r="C34" t="n">
-        <v>22.61</v>
-      </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>1.29</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>114</v>
       </c>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>88.87</v>
+      </c>
+      <c r="C35" t="n">
         <v>34.33</v>
       </c>
-      <c r="C35" t="n">
-        <v>30.81</v>
-      </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>4.52</v>
       </c>
       <c r="E35" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c r="G35" t="n">
-        <v>34</v>
+        <v>242</v>
+      </c>
+      <c r="H35" t="n">
+        <v>38</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="36">
@@ -1185,41 +1574,63 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>91.03</v>
+      </c>
+      <c r="C36" t="n">
         <v>35.34</v>
       </c>
-      <c r="C36" t="n">
-        <v>10.07</v>
-      </c>
       <c r="D36" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E36" t="n">
         <v>2</v>
       </c>
-      <c r="E36" t="n">
-        <v>100</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>103</v>
+      </c>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>100.44</v>
+      </c>
+      <c r="C37" t="n">
         <v>36.35</v>
       </c>
-      <c r="C37" t="n">
-        <v>32.33</v>
-      </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>7.21</v>
       </c>
       <c r="E37" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="G37" t="n">
-        <v>38</v>
+        <v>232</v>
+      </c>
+      <c r="H37" t="n">
+        <v>39</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="38">
@@ -1227,41 +1638,63 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>109.12</v>
+      </c>
+      <c r="C38" t="n">
         <v>37.36</v>
       </c>
-      <c r="C38" t="n">
-        <v>35.9</v>
-      </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>4.03</v>
       </c>
       <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
         <v>88</v>
       </c>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>110.15</v>
+      </c>
+      <c r="C39" t="n">
         <v>38.37</v>
       </c>
-      <c r="C39" t="n">
-        <v>34.38</v>
-      </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="E39" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="G39" t="n">
-        <v>33</v>
+        <v>212</v>
+      </c>
+      <c r="H39" t="n">
+        <v>37</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1269,41 +1702,63 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>114.55</v>
+      </c>
+      <c r="C40" t="n">
         <v>39.38</v>
       </c>
-      <c r="C40" t="n">
-        <v>28.04</v>
-      </c>
       <c r="D40" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E40" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="n">
-        <v>76</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>79</v>
+      </c>
       <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>117.62</v>
+      </c>
+      <c r="C41" t="n">
         <v>40.39</v>
       </c>
-      <c r="C41" t="n">
-        <v>35.26</v>
-      </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>4.34</v>
       </c>
       <c r="E41" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="G41" t="n">
-        <v>36</v>
+        <v>256</v>
+      </c>
+      <c r="H41" t="n">
+        <v>35</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="42">
@@ -1311,41 +1766,63 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>126.14</v>
+      </c>
+      <c r="C42" t="n">
         <v>41.4</v>
       </c>
-      <c r="C42" t="n">
-        <v>12.16</v>
-      </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>3.12</v>
       </c>
       <c r="E42" t="n">
-        <v>66</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>67</v>
+      </c>
       <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>122.67</v>
+      </c>
+      <c r="C43" t="n">
         <v>42.41</v>
       </c>
-      <c r="C43" t="n">
-        <v>29.63</v>
-      </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>5.72</v>
       </c>
       <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
         <v>60</v>
       </c>
-      <c r="F43" t="n">
-        <v>241</v>
-      </c>
       <c r="G43" t="n">
-        <v>37</v>
+        <v>231</v>
+      </c>
+      <c r="H43" t="n">
+        <v>35</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="44">
@@ -1353,41 +1830,63 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>129.76</v>
+      </c>
+      <c r="C44" t="n">
         <v>43.42</v>
       </c>
-      <c r="C44" t="n">
-        <v>41.22</v>
-      </c>
       <c r="D44" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="E44" t="n">
         <v>2</v>
       </c>
-      <c r="E44" t="n">
-        <v>51</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>49</v>
+      </c>
       <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>136.9</v>
+      </c>
+      <c r="C45" t="n">
         <v>44.43</v>
       </c>
-      <c r="C45" t="n">
-        <v>39.56</v>
-      </c>
       <c r="D45" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E45" t="n">
         <v>1</v>
       </c>
-      <c r="E45" t="n">
-        <v>44</v>
-      </c>
       <c r="F45" t="n">
+        <v>48</v>
+      </c>
+      <c r="G45" t="n">
         <v>239</v>
       </c>
-      <c r="G45" t="n">
-        <v>35</v>
+      <c r="H45" t="n">
+        <v>33</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="46">
@@ -1395,41 +1894,63 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>147.33</v>
+      </c>
+      <c r="C46" t="n">
         <v>45.44</v>
       </c>
-      <c r="C46" t="n">
-        <v>29.9</v>
-      </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="E46" t="n">
-        <v>44</v>
-      </c>
-      <c r="F46" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>40</v>
+      </c>
       <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>156.76</v>
+      </c>
+      <c r="C47" t="n">
         <v>46.45</v>
       </c>
-      <c r="C47" t="n">
-        <v>45.33</v>
-      </c>
       <c r="D47" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E47" t="n">
         <v>3</v>
       </c>
-      <c r="E47" t="n">
-        <v>32</v>
-      </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="G47" t="n">
-        <v>42</v>
+        <v>242</v>
+      </c>
+      <c r="H47" t="n">
+        <v>35</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="48">
@@ -1437,41 +1958,63 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>156.84</v>
+      </c>
+      <c r="C48" t="n">
         <v>47.46</v>
       </c>
-      <c r="C48" t="n">
-        <v>27.66</v>
-      </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>3.78</v>
       </c>
       <c r="E48" t="n">
-        <v>26</v>
-      </c>
-      <c r="F48" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>32</v>
+      </c>
       <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>156.06</v>
+      </c>
+      <c r="C49" t="n">
         <v>48.47</v>
       </c>
-      <c r="C49" t="n">
-        <v>28.3</v>
-      </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>4.53</v>
       </c>
       <c r="E49" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="G49" t="n">
-        <v>39</v>
+        <v>223</v>
+      </c>
+      <c r="H49" t="n">
+        <v>35</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="50">
@@ -1479,41 +2022,63 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>163.44</v>
+      </c>
+      <c r="C50" t="n">
         <v>49.48</v>
       </c>
-      <c r="C50" t="n">
-        <v>28.61</v>
-      </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>5.37</v>
       </c>
       <c r="E50" t="n">
-        <v>19</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>16</v>
+      </c>
       <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>168.44</v>
+      </c>
+      <c r="C51" t="n">
         <v>50.49</v>
       </c>
-      <c r="C51" t="n">
-        <v>36.99</v>
-      </c>
       <c r="D51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E51" t="n">
         <v>2</v>
       </c>
-      <c r="E51" t="n">
-        <v>10</v>
-      </c>
       <c r="F51" t="n">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="G51" t="n">
-        <v>33</v>
+        <v>220</v>
+      </c>
+      <c r="H51" t="n">
+        <v>34</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="52">
@@ -1521,41 +2086,63 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="C52" t="n">
         <v>51.51</v>
       </c>
-      <c r="C52" t="n">
-        <v>47.91</v>
-      </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>24.22</v>
       </c>
       <c r="E52" t="n">
+        <v>5</v>
+      </c>
+      <c r="F52" t="n">
         <v>361</v>
       </c>
-      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>219.62</v>
+      </c>
+      <c r="C53" t="n">
         <v>52.52</v>
       </c>
-      <c r="C53" t="n">
-        <v>22.81</v>
-      </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>24.91</v>
       </c>
       <c r="E53" t="n">
-        <v>360</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>217</v>
+        <v>357</v>
       </c>
       <c r="G53" t="n">
+        <v>218</v>
+      </c>
+      <c r="H53" t="n">
         <v>38</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>1.21</v>
       </c>
     </row>
     <row r="54">
@@ -1563,41 +2150,63 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>239.47</v>
+      </c>
+      <c r="C54" t="n">
         <v>53.53</v>
       </c>
-      <c r="C54" t="n">
-        <v>44.32</v>
-      </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>28.92</v>
       </c>
       <c r="E54" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" t="n">
         <v>357</v>
       </c>
-      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>261.73</v>
+      </c>
+      <c r="C55" t="n">
         <v>54.54</v>
       </c>
-      <c r="C55" t="n">
-        <v>31.18</v>
-      </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>20.94</v>
       </c>
       <c r="E55" t="n">
-        <v>359</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="G55" t="n">
-        <v>37</v>
+        <v>246</v>
+      </c>
+      <c r="H55" t="n">
+        <v>33</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="56">
@@ -1605,41 +2214,63 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>291.94</v>
+      </c>
+      <c r="C56" t="n">
         <v>55.55</v>
       </c>
-      <c r="C56" t="n">
-        <v>33.15</v>
-      </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>25.24</v>
       </c>
       <c r="E56" t="n">
-        <v>360</v>
-      </c>
-      <c r="F56" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>359</v>
+      </c>
       <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>315.04</v>
+      </c>
+      <c r="C57" t="n">
         <v>56.56</v>
       </c>
-      <c r="C57" t="n">
-        <v>34.23</v>
-      </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>27.17</v>
       </c>
       <c r="E57" t="n">
-        <v>359</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>227</v>
+        <v>357</v>
       </c>
       <c r="G57" t="n">
-        <v>38</v>
+        <v>228</v>
+      </c>
+      <c r="H57" t="n">
+        <v>39</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="58">
@@ -1647,41 +2278,63 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>348.72</v>
+      </c>
+      <c r="C58" t="n">
         <v>57.57</v>
       </c>
-      <c r="C58" t="n">
-        <v>40.11</v>
-      </c>
       <c r="D58" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="E58" t="n">
         <v>4</v>
       </c>
-      <c r="E58" t="n">
-        <v>361</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>357</v>
+      </c>
       <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>1.09</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>367.17</v>
+      </c>
+      <c r="C59" t="n">
         <v>58.58</v>
       </c>
-      <c r="C59" t="n">
-        <v>56.74</v>
-      </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>28.15</v>
       </c>
       <c r="E59" t="n">
-        <v>360</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="G59" t="n">
-        <v>34</v>
+        <v>232</v>
+      </c>
+      <c r="H59" t="n">
+        <v>32</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="60">
@@ -1689,41 +2342,63 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>400.92</v>
+      </c>
+      <c r="C60" t="n">
         <v>59.59</v>
       </c>
-      <c r="C60" t="n">
-        <v>32.29</v>
-      </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>31.84</v>
       </c>
       <c r="E60" t="n">
-        <v>358</v>
-      </c>
-      <c r="F60" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F60" t="n">
+        <v>357</v>
+      </c>
       <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>428.39</v>
+      </c>
+      <c r="C61" t="n">
         <v>60.6</v>
       </c>
-      <c r="C61" t="n">
-        <v>34.44</v>
-      </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>18.3</v>
       </c>
       <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" t="n">
         <v>358</v>
       </c>
-      <c r="F61" t="n">
-        <v>223</v>
-      </c>
       <c r="G61" t="n">
-        <v>32</v>
+        <v>210</v>
+      </c>
+      <c r="H61" t="n">
+        <v>33</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="62">
@@ -1731,41 +2406,63 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>457.86</v>
+      </c>
+      <c r="C62" t="n">
         <v>61.61</v>
       </c>
-      <c r="C62" t="n">
-        <v>25.12</v>
-      </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>31.47</v>
       </c>
       <c r="E62" t="n">
-        <v>358</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F62" t="n">
+        <v>362</v>
+      </c>
       <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>473.34</v>
+      </c>
+      <c r="C63" t="n">
         <v>62.62</v>
       </c>
-      <c r="C63" t="n">
-        <v>46.45</v>
-      </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>27.62</v>
       </c>
       <c r="E63" t="n">
-        <v>356</v>
+        <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>227</v>
+        <v>360</v>
       </c>
       <c r="G63" t="n">
-        <v>33</v>
+        <v>236</v>
+      </c>
+      <c r="H63" t="n">
+        <v>35</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="64">
@@ -1773,41 +2470,63 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>499.14</v>
+      </c>
+      <c r="C64" t="n">
         <v>63.63</v>
       </c>
-      <c r="C64" t="n">
-        <v>39.57</v>
-      </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>28.34</v>
       </c>
       <c r="E64" t="n">
-        <v>363</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>358</v>
+      </c>
       <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>534.39</v>
+      </c>
+      <c r="C65" t="n">
         <v>64.64</v>
       </c>
-      <c r="C65" t="n">
-        <v>32.05</v>
-      </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>27.14</v>
       </c>
       <c r="E65" t="n">
-        <v>359</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>237</v>
+        <v>361</v>
       </c>
       <c r="G65" t="n">
-        <v>31</v>
+        <v>230</v>
+      </c>
+      <c r="H65" t="n">
+        <v>33</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="66">
@@ -1815,41 +2534,63 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>563.97</v>
+      </c>
+      <c r="C66" t="n">
         <v>65.65000000000001</v>
       </c>
-      <c r="C66" t="n">
-        <v>28.86</v>
-      </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>24.92</v>
       </c>
       <c r="E66" t="n">
-        <v>363</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>357</v>
+      </c>
       <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>590.64</v>
+      </c>
+      <c r="C67" t="n">
         <v>66.66</v>
       </c>
-      <c r="C67" t="n">
-        <v>43.9</v>
-      </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>22.52</v>
       </c>
       <c r="E67" t="n">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>227</v>
+        <v>356</v>
       </c>
       <c r="G67" t="n">
-        <v>36</v>
+        <v>211</v>
+      </c>
+      <c r="H67" t="n">
+        <v>37</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="68">
@@ -1857,41 +2598,63 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>627.37</v>
+      </c>
+      <c r="C68" t="n">
         <v>67.67</v>
       </c>
-      <c r="C68" t="n">
-        <v>54.59</v>
-      </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>33.09</v>
       </c>
       <c r="E68" t="n">
-        <v>358</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="F68" t="n">
+        <v>357</v>
+      </c>
       <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>1.12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>643.24</v>
+      </c>
+      <c r="C69" t="n">
         <v>68.68000000000001</v>
       </c>
-      <c r="C69" t="n">
-        <v>52.79</v>
-      </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>31.23</v>
       </c>
       <c r="E69" t="n">
-        <v>362</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>220</v>
+        <v>356</v>
       </c>
       <c r="G69" t="n">
-        <v>31</v>
+        <v>246</v>
+      </c>
+      <c r="H69" t="n">
+        <v>35</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="70">
@@ -1899,41 +2662,63 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>668.73</v>
+      </c>
+      <c r="C70" t="n">
         <v>69.69</v>
       </c>
-      <c r="C70" t="n">
-        <v>48.02</v>
-      </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>17.83</v>
       </c>
       <c r="E70" t="n">
+        <v>4</v>
+      </c>
+      <c r="F70" t="n">
         <v>357</v>
       </c>
-      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>706.14</v>
+      </c>
+      <c r="C71" t="n">
         <v>70.7</v>
       </c>
-      <c r="C71" t="n">
-        <v>33.11</v>
-      </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>37.75</v>
       </c>
       <c r="E71" t="n">
-        <v>356</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="G71" t="n">
+        <v>240</v>
+      </c>
+      <c r="H71" t="n">
         <v>33</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="72">
@@ -1941,41 +2726,63 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>732.17</v>
+      </c>
+      <c r="C72" t="n">
         <v>71.70999999999999</v>
       </c>
-      <c r="C72" t="n">
-        <v>52.76</v>
-      </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>32.66</v>
       </c>
       <c r="E72" t="n">
-        <v>357</v>
-      </c>
-      <c r="F72" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>356</v>
+      </c>
       <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>768.23</v>
+      </c>
+      <c r="C73" t="n">
         <v>72.72</v>
       </c>
-      <c r="C73" t="n">
-        <v>45.16</v>
-      </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>37.65</v>
       </c>
       <c r="E73" t="n">
-        <v>356</v>
+        <v>4</v>
       </c>
       <c r="F73" t="n">
-        <v>223</v>
+        <v>358</v>
       </c>
       <c r="G73" t="n">
-        <v>35</v>
+        <v>249</v>
+      </c>
+      <c r="H73" t="n">
+        <v>29</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="74">
@@ -1983,41 +2790,63 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>797.29</v>
+      </c>
+      <c r="C74" t="n">
         <v>73.73</v>
       </c>
-      <c r="C74" t="n">
-        <v>43.15</v>
-      </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>27.96</v>
       </c>
       <c r="E74" t="n">
-        <v>357</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>355</v>
+      </c>
       <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>841.45</v>
+      </c>
+      <c r="C75" t="n">
         <v>74.73999999999999</v>
       </c>
-      <c r="C75" t="n">
-        <v>62.22</v>
-      </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>41.11</v>
       </c>
       <c r="E75" t="n">
-        <v>357</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
-        <v>226</v>
+        <v>355</v>
       </c>
       <c r="G75" t="n">
-        <v>32</v>
+        <v>238</v>
+      </c>
+      <c r="H75" t="n">
+        <v>33</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="76">
@@ -2025,41 +2854,63 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>873.9</v>
+      </c>
+      <c r="C76" t="n">
         <v>75.75</v>
       </c>
-      <c r="C76" t="n">
-        <v>42.75</v>
-      </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>36.16</v>
       </c>
       <c r="E76" t="n">
-        <v>359</v>
-      </c>
-      <c r="F76" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F76" t="n">
+        <v>358</v>
+      </c>
       <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>917.53</v>
+      </c>
+      <c r="C77" t="n">
         <v>76.76000000000001</v>
       </c>
-      <c r="C77" t="n">
-        <v>44.08</v>
-      </c>
       <c r="D77" t="n">
+        <v>38.05</v>
+      </c>
+      <c r="E77" t="n">
         <v>5</v>
       </c>
-      <c r="E77" t="n">
-        <v>358</v>
-      </c>
       <c r="F77" t="n">
-        <v>254</v>
+        <v>352</v>
       </c>
       <c r="G77" t="n">
-        <v>33</v>
+        <v>223</v>
+      </c>
+      <c r="H77" t="n">
+        <v>32</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="78">
@@ -2067,41 +2918,63 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>960.14</v>
+      </c>
+      <c r="C78" t="n">
         <v>77.77</v>
       </c>
-      <c r="C78" t="n">
-        <v>52.95</v>
-      </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>35.73</v>
       </c>
       <c r="E78" t="n">
-        <v>358</v>
-      </c>
-      <c r="F78" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>354</v>
+      </c>
       <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>985.4299999999999</v>
+      </c>
+      <c r="C79" t="n">
         <v>78.78</v>
       </c>
-      <c r="C79" t="n">
-        <v>40.59</v>
-      </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>32.88</v>
       </c>
       <c r="E79" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" t="n">
         <v>360</v>
       </c>
-      <c r="F79" t="n">
-        <v>227</v>
-      </c>
       <c r="G79" t="n">
-        <v>32</v>
+        <v>251</v>
+      </c>
+      <c r="H79" t="n">
+        <v>33</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="80">
@@ -2109,41 +2982,63 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>1021.28</v>
+      </c>
+      <c r="C80" t="n">
         <v>79.79000000000001</v>
       </c>
-      <c r="C80" t="n">
-        <v>50.77</v>
-      </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>33.46</v>
       </c>
       <c r="E80" t="n">
-        <v>356</v>
-      </c>
-      <c r="F80" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>359</v>
+      </c>
       <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>1047.95</v>
+      </c>
+      <c r="C81" t="n">
         <v>80.8</v>
       </c>
-      <c r="C81" t="n">
-        <v>50.5</v>
-      </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>31.03</v>
       </c>
       <c r="E81" t="n">
-        <v>355</v>
+        <v>5</v>
       </c>
       <c r="F81" t="n">
-        <v>219</v>
+        <v>356</v>
       </c>
       <c r="G81" t="n">
-        <v>35</v>
+        <v>227</v>
+      </c>
+      <c r="H81" t="n">
+        <v>34</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Liverpool Formation</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="82">
@@ -2151,41 +3046,63 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>1071.11</v>
+      </c>
+      <c r="C82" t="n">
         <v>81.81</v>
       </c>
-      <c r="C82" t="n">
-        <v>41.78</v>
-      </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>23.32</v>
       </c>
       <c r="E82" t="n">
-        <v>354</v>
-      </c>
-      <c r="F82" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>355</v>
+      </c>
       <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>1101.44</v>
+      </c>
+      <c r="C83" t="n">
         <v>82.81999999999999</v>
       </c>
-      <c r="C83" t="n">
-        <v>51.52</v>
-      </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>30.98</v>
       </c>
       <c r="E83" t="n">
-        <v>356</v>
+        <v>5</v>
       </c>
       <c r="F83" t="n">
-        <v>230</v>
+        <v>359</v>
       </c>
       <c r="G83" t="n">
-        <v>30</v>
+        <v>233</v>
+      </c>
+      <c r="H83" t="n">
+        <v>33</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="84">
@@ -2193,41 +3110,63 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>1144.2</v>
+      </c>
+      <c r="C84" t="n">
         <v>83.83</v>
       </c>
-      <c r="C84" t="n">
-        <v>65.67</v>
-      </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>31.42</v>
       </c>
       <c r="E84" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" t="n">
         <v>358</v>
       </c>
-      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>1163.29</v>
+      </c>
+      <c r="C85" t="n">
         <v>84.84</v>
       </c>
-      <c r="C85" t="n">
-        <v>53.3</v>
-      </c>
       <c r="D85" t="n">
+        <v>35.23</v>
+      </c>
+      <c r="E85" t="n">
         <v>4</v>
       </c>
-      <c r="E85" t="n">
-        <v>355</v>
-      </c>
       <c r="F85" t="n">
-        <v>234</v>
+        <v>351</v>
       </c>
       <c r="G85" t="n">
-        <v>28</v>
+        <v>226</v>
+      </c>
+      <c r="H85" t="n">
+        <v>32</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="86">
@@ -2235,41 +3174,63 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>1207.64</v>
+      </c>
+      <c r="C86" t="n">
         <v>85.84999999999999</v>
       </c>
-      <c r="C86" t="n">
-        <v>49.59</v>
-      </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>33.55</v>
       </c>
       <c r="E86" t="n">
-        <v>352</v>
-      </c>
-      <c r="F86" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>358</v>
+      </c>
       <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>1233.27</v>
+      </c>
+      <c r="C87" t="n">
         <v>86.86</v>
       </c>
-      <c r="C87" t="n">
-        <v>51.64</v>
-      </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>35.36</v>
       </c>
       <c r="E87" t="n">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="G87" t="n">
-        <v>34</v>
+        <v>227</v>
+      </c>
+      <c r="H87" t="n">
+        <v>30</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="88">
@@ -2277,41 +3238,63 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>1269.04</v>
+      </c>
+      <c r="C88" t="n">
         <v>87.87</v>
       </c>
-      <c r="C88" t="n">
-        <v>59.7</v>
-      </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>24.84</v>
       </c>
       <c r="E88" t="n">
-        <v>354</v>
-      </c>
-      <c r="F88" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>352</v>
+      </c>
       <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>1305.32</v>
+      </c>
+      <c r="C89" t="n">
         <v>88.88</v>
       </c>
-      <c r="C89" t="n">
-        <v>58.14</v>
-      </c>
       <c r="D89" t="n">
+        <v>42.07</v>
+      </c>
+      <c r="E89" t="n">
         <v>4</v>
       </c>
-      <c r="E89" t="n">
-        <v>358</v>
-      </c>
       <c r="F89" t="n">
-        <v>241</v>
+        <v>356</v>
       </c>
       <c r="G89" t="n">
-        <v>37</v>
+        <v>213</v>
+      </c>
+      <c r="H89" t="n">
+        <v>31</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row r="90">
@@ -2319,41 +3302,63 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>1357.72</v>
+      </c>
+      <c r="C90" t="n">
         <v>89.89</v>
       </c>
-      <c r="C90" t="n">
-        <v>53.59</v>
-      </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>45.26</v>
       </c>
       <c r="E90" t="n">
+        <v>5</v>
+      </c>
+      <c r="F90" t="n">
         <v>360</v>
       </c>
-      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>1395.15</v>
+      </c>
+      <c r="C91" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="C91" t="n">
-        <v>57.41</v>
-      </c>
       <c r="D91" t="n">
+        <v>38.37</v>
+      </c>
+      <c r="E91" t="n">
         <v>4</v>
       </c>
-      <c r="E91" t="n">
-        <v>359</v>
-      </c>
       <c r="F91" t="n">
-        <v>233</v>
+        <v>355</v>
       </c>
       <c r="G91" t="n">
-        <v>33</v>
+        <v>239</v>
+      </c>
+      <c r="H91" t="n">
+        <v>30</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="92">
@@ -2361,41 +3366,63 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>1423.77</v>
+      </c>
+      <c r="C92" t="n">
         <v>91.91</v>
       </c>
-      <c r="C92" t="n">
-        <v>75.2</v>
-      </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>34.75</v>
       </c>
       <c r="E92" t="n">
-        <v>356</v>
-      </c>
-      <c r="F92" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>355</v>
+      </c>
       <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>1478.21</v>
+      </c>
+      <c r="C93" t="n">
         <v>92.92</v>
       </c>
-      <c r="C93" t="n">
-        <v>81.29000000000001</v>
-      </c>
       <c r="D93" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="E93" t="n">
         <v>5</v>
       </c>
-      <c r="E93" t="n">
-        <v>358</v>
-      </c>
       <c r="F93" t="n">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="G93" t="n">
-        <v>29</v>
+        <v>211</v>
+      </c>
+      <c r="H93" t="n">
+        <v>28</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="94">
@@ -2403,41 +3430,63 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>1501.08</v>
+      </c>
+      <c r="C94" t="n">
         <v>93.93000000000001</v>
       </c>
-      <c r="C94" t="n">
-        <v>64.67</v>
-      </c>
       <c r="D94" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="E94" t="n">
         <v>4</v>
       </c>
-      <c r="E94" t="n">
-        <v>352</v>
-      </c>
-      <c r="F94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>358</v>
+      </c>
       <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>1556.28</v>
+      </c>
+      <c r="C95" t="n">
         <v>94.94</v>
       </c>
-      <c r="C95" t="n">
-        <v>53.91</v>
-      </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>47.35</v>
       </c>
       <c r="E95" t="n">
-        <v>353</v>
+        <v>5</v>
       </c>
       <c r="F95" t="n">
-        <v>227</v>
+        <v>356</v>
       </c>
       <c r="G95" t="n">
-        <v>31</v>
+        <v>222</v>
+      </c>
+      <c r="H95" t="n">
+        <v>28</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="96">
@@ -2445,41 +3494,63 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>1596.24</v>
+      </c>
+      <c r="C96" t="n">
         <v>95.95</v>
       </c>
-      <c r="C96" t="n">
-        <v>51.86</v>
-      </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>44.22</v>
       </c>
       <c r="E96" t="n">
-        <v>356</v>
-      </c>
-      <c r="F96" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>352</v>
+      </c>
       <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
+        <v>1647.41</v>
+      </c>
+      <c r="C97" t="n">
         <v>96.95999999999999</v>
       </c>
-      <c r="C97" t="n">
-        <v>55.39</v>
-      </c>
       <c r="D97" t="n">
+        <v>41.79</v>
+      </c>
+      <c r="E97" t="n">
         <v>5</v>
       </c>
-      <c r="E97" t="n">
-        <v>353</v>
-      </c>
       <c r="F97" t="n">
-        <v>236</v>
+        <v>354</v>
       </c>
       <c r="G97" t="n">
+        <v>224</v>
+      </c>
+      <c r="H97" t="n">
         <v>31</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="98">
@@ -2487,41 +3558,63 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>1686.78</v>
+      </c>
+      <c r="C98" t="n">
         <v>97.97</v>
       </c>
-      <c r="C98" t="n">
-        <v>63.85</v>
-      </c>
       <c r="D98" t="n">
+        <v>40.18</v>
+      </c>
+      <c r="E98" t="n">
         <v>5</v>
       </c>
-      <c r="E98" t="n">
-        <v>355</v>
-      </c>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>358</v>
+      </c>
       <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>1720.26</v>
+      </c>
+      <c r="C99" t="n">
         <v>98.98</v>
       </c>
-      <c r="C99" t="n">
-        <v>67.67</v>
-      </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>40.04</v>
       </c>
       <c r="E99" t="n">
-        <v>353</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
-        <v>221</v>
+        <v>356</v>
       </c>
       <c r="G99" t="n">
-        <v>30</v>
+        <v>240</v>
+      </c>
+      <c r="H99" t="n">
+        <v>28</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="100">
@@ -2529,41 +3622,63 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>1765.01</v>
+      </c>
+      <c r="C100" t="n">
         <v>99.98999999999999</v>
       </c>
-      <c r="C100" t="n">
-        <v>53.91</v>
-      </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>45.91</v>
       </c>
       <c r="E100" t="n">
-        <v>357</v>
-      </c>
-      <c r="F100" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>355</v>
+      </c>
       <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>1810.16</v>
+      </c>
+      <c r="C101" t="n">
         <v>101</v>
       </c>
-      <c r="C101" t="n">
-        <v>73.38</v>
-      </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>42.23</v>
       </c>
       <c r="E101" t="n">
-        <v>356</v>
+        <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>213</v>
+        <v>355</v>
       </c>
       <c r="G101" t="n">
-        <v>32</v>
+        <v>226</v>
+      </c>
+      <c r="H101" t="n">
+        <v>30</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Manchester Formation</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/euansoutter/Desktop/python/geopy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAEE353-90C0-714C-9422-DD8B81FB075F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD62BD82-FAB3-B24F-802E-6BC957AB2C90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1187,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>-0.26</v>
+        <v>0.26</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2285,7 +2285,7 @@
         <v>10</v>
       </c>
       <c r="I69">
-        <v>0.17</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -2501,7 +2501,7 @@
         <v>10</v>
       </c>
       <c r="I77">
-        <v>0.2</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -2717,7 +2717,7 @@
         <v>9</v>
       </c>
       <c r="I85">
-        <v>0.3</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -2957,7 +2957,7 @@
         <v>9</v>
       </c>
       <c r="I94">
-        <v>0.15</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/euansoutter/Desktop/python/geopy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/euansoutter/Desktop/npython/geopy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD62BD82-FAB3-B24F-802E-6BC957AB2C90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2C3D21-A354-AB4D-92AF-DAE82EEF8545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>bed_number</t>
-  </si>
-  <si>
-    <t>bed_thickness</t>
   </si>
   <si>
     <t>grainsize</t>
@@ -53,6 +50,9 @@
   </si>
   <si>
     <t>Sheffield Formation</t>
+  </si>
+  <si>
+    <t>bed thickness</t>
   </si>
 </sst>
 </file>
@@ -419,10 +419,14 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -432,25 +436,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -470,7 +474,7 @@
         <v>309</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>0.09</v>
@@ -500,7 +504,7 @@
         <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>0.25</v>
@@ -524,7 +528,7 @@
         <v>296</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>0.16</v>
@@ -554,7 +558,7 @@
         <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>0.21</v>
@@ -578,7 +582,7 @@
         <v>287</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>0.19</v>
@@ -608,7 +612,7 @@
         <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>0.4</v>
@@ -632,7 +636,7 @@
         <v>271</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>0.19</v>
@@ -662,7 +666,7 @@
         <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>0.35</v>
@@ -686,7 +690,7 @@
         <v>261</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <v>0.17</v>
@@ -716,7 +720,7 @@
         <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>0.28000000000000003</v>
@@ -740,7 +744,7 @@
         <v>250</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <v>0.17</v>
@@ -770,7 +774,7 @@
         <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13">
         <v>0.37</v>
@@ -794,7 +798,7 @@
         <v>233</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>0.24</v>
@@ -824,7 +828,7 @@
         <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>0.33</v>
@@ -848,7 +852,7 @@
         <v>225</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>0.23</v>
@@ -878,7 +882,7 @@
         <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>0.31</v>
@@ -902,7 +906,7 @@
         <v>212</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18">
         <v>0.26</v>
@@ -932,7 +936,7 @@
         <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>0.19</v>
@@ -956,7 +960,7 @@
         <v>198</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>0.21</v>
@@ -986,7 +990,7 @@
         <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <v>0.33</v>
@@ -1010,7 +1014,7 @@
         <v>189</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22">
         <v>0.54</v>
@@ -1040,7 +1044,7 @@
         <v>38</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>0.2</v>
@@ -1064,7 +1068,7 @@
         <v>178</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24">
         <v>0.1</v>
@@ -1094,7 +1098,7 @@
         <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I25">
         <v>0.27</v>
@@ -1118,7 +1122,7 @@
         <v>161</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I26">
         <v>0.48</v>
@@ -1148,7 +1152,7 @@
         <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I27">
         <v>0.31</v>
@@ -1172,7 +1176,7 @@
         <v>152</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28">
         <v>0.26</v>
@@ -1202,7 +1206,7 @@
         <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I29">
         <v>0.19</v>
@@ -1226,7 +1230,7 @@
         <v>137</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I30">
         <v>0.3</v>
@@ -1256,7 +1260,7 @@
         <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31">
         <v>0.41</v>
@@ -1280,7 +1284,7 @@
         <v>128</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I32">
         <v>0.41</v>
@@ -1310,7 +1314,7 @@
         <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33">
         <v>0.55000000000000004</v>
@@ -1334,7 +1338,7 @@
         <v>111</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I34">
         <v>0.25</v>
@@ -1364,7 +1368,7 @@
         <v>36</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I35">
         <v>0.34</v>
@@ -1388,7 +1392,7 @@
         <v>100</v>
       </c>
       <c r="H36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I36">
         <v>0.45</v>
@@ -1418,7 +1422,7 @@
         <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I37">
         <v>0.32</v>
@@ -1442,7 +1446,7 @@
         <v>91</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I38">
         <v>0.56999999999999995</v>
@@ -1472,7 +1476,7 @@
         <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I39">
         <v>0.39</v>
@@ -1496,7 +1500,7 @@
         <v>79</v>
       </c>
       <c r="H40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I40">
         <v>0.46</v>
@@ -1526,7 +1530,7 @@
         <v>38</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41">
         <v>0.36</v>
@@ -1550,7 +1554,7 @@
         <v>62</v>
       </c>
       <c r="H42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I42">
         <v>0.34</v>
@@ -1580,7 +1584,7 @@
         <v>34</v>
       </c>
       <c r="H43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I43">
         <v>0.41</v>
@@ -1604,7 +1608,7 @@
         <v>54</v>
       </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I44">
         <v>0.65</v>
@@ -1634,7 +1638,7 @@
         <v>34</v>
       </c>
       <c r="H45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I45">
         <v>0.63</v>
@@ -1658,7 +1662,7 @@
         <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I46">
         <v>0.5</v>
@@ -1688,7 +1692,7 @@
         <v>36</v>
       </c>
       <c r="H47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I47">
         <v>0.73</v>
@@ -1712,7 +1716,7 @@
         <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I48">
         <v>0.67</v>
@@ -1742,7 +1746,7 @@
         <v>39</v>
       </c>
       <c r="H49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I49">
         <v>0.57999999999999996</v>
@@ -1766,7 +1770,7 @@
         <v>16</v>
       </c>
       <c r="H50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I50">
         <v>0.53</v>
@@ -1796,7 +1800,7 @@
         <v>39</v>
       </c>
       <c r="H51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I51">
         <v>0.76</v>
@@ -1820,7 +1824,7 @@
         <v>360</v>
       </c>
       <c r="H52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I52">
         <v>1.38</v>
@@ -1850,7 +1854,7 @@
         <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I53">
         <v>1.4</v>
@@ -1874,7 +1878,7 @@
         <v>358</v>
       </c>
       <c r="H54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I54">
         <v>1.29</v>
@@ -1904,7 +1908,7 @@
         <v>34</v>
       </c>
       <c r="H55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I55">
         <v>1.32</v>
@@ -1928,7 +1932,7 @@
         <v>358</v>
       </c>
       <c r="H56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I56">
         <v>1.39</v>
@@ -1958,7 +1962,7 @@
         <v>38</v>
       </c>
       <c r="H57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I57">
         <v>1.31</v>
@@ -1982,7 +1986,7 @@
         <v>361</v>
       </c>
       <c r="H58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I58">
         <v>1.3</v>
@@ -2012,7 +2016,7 @@
         <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I59">
         <v>1.32</v>
@@ -2036,7 +2040,7 @@
         <v>359</v>
       </c>
       <c r="H60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I60">
         <v>1.17</v>
@@ -2066,7 +2070,7 @@
         <v>34</v>
       </c>
       <c r="H61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I61">
         <v>1.1399999999999999</v>
@@ -2090,7 +2094,7 @@
         <v>362</v>
       </c>
       <c r="H62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I62">
         <v>1.28</v>
@@ -2120,7 +2124,7 @@
         <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I63">
         <v>1.27</v>
@@ -2144,7 +2148,7 @@
         <v>363</v>
       </c>
       <c r="H64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I64">
         <v>1.19</v>
@@ -2174,7 +2178,7 @@
         <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I65">
         <v>1.17</v>
@@ -2198,7 +2202,7 @@
         <v>361</v>
       </c>
       <c r="H66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I66">
         <v>1.23</v>
@@ -2228,7 +2232,7 @@
         <v>33</v>
       </c>
       <c r="H67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I67">
         <v>1.1399999999999999</v>
@@ -2252,7 +2256,7 @@
         <v>359</v>
       </c>
       <c r="H68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I68">
         <v>1.17</v>
@@ -2282,7 +2286,7 @@
         <v>33</v>
       </c>
       <c r="H69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I69">
         <v>1.1200000000000001</v>
@@ -2306,7 +2310,7 @@
         <v>360</v>
       </c>
       <c r="H70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I70">
         <v>1.22</v>
@@ -2336,7 +2340,7 @@
         <v>32</v>
       </c>
       <c r="H71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I71">
         <v>1.1399999999999999</v>
@@ -2360,7 +2364,7 @@
         <v>358</v>
       </c>
       <c r="H72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I72">
         <v>1.2</v>
@@ -2390,7 +2394,7 @@
         <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I73">
         <v>1.1299999999999999</v>
@@ -2414,7 +2418,7 @@
         <v>356</v>
       </c>
       <c r="H74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I74">
         <v>1.1200000000000001</v>
@@ -2444,7 +2448,7 @@
         <v>33</v>
       </c>
       <c r="H75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I75">
         <v>1.28</v>
@@ -2468,7 +2472,7 @@
         <v>358</v>
       </c>
       <c r="H76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I76">
         <v>1.29</v>
@@ -2498,7 +2502,7 @@
         <v>31</v>
       </c>
       <c r="H77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I77">
         <v>1.23</v>
@@ -2522,7 +2526,7 @@
         <v>356</v>
       </c>
       <c r="H78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I78">
         <v>1.0900000000000001</v>
@@ -2552,7 +2556,7 @@
         <v>34</v>
       </c>
       <c r="H79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I79">
         <v>1.1499999999999999</v>
@@ -2576,7 +2580,7 @@
         <v>359</v>
       </c>
       <c r="H80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I80">
         <v>1.1100000000000001</v>
@@ -2606,7 +2610,7 @@
         <v>33</v>
       </c>
       <c r="H81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I81">
         <v>1.1499999999999999</v>
@@ -2630,7 +2634,7 @@
         <v>353</v>
       </c>
       <c r="H82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I82">
         <v>1.25</v>
@@ -2660,7 +2664,7 @@
         <v>33</v>
       </c>
       <c r="H83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I83">
         <v>1.1200000000000001</v>
@@ -2684,7 +2688,7 @@
         <v>356</v>
       </c>
       <c r="H84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I84">
         <v>1.08</v>
@@ -2714,7 +2718,7 @@
         <v>31</v>
       </c>
       <c r="H85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I85">
         <v>1.1100000000000001</v>
@@ -2738,7 +2742,7 @@
         <v>357</v>
       </c>
       <c r="H86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I86">
         <v>1.03</v>
@@ -2768,7 +2772,7 @@
         <v>32</v>
       </c>
       <c r="H87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I87">
         <v>0.95</v>
@@ -2792,7 +2796,7 @@
         <v>357</v>
       </c>
       <c r="H88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I88">
         <v>0.91</v>
@@ -2822,7 +2826,7 @@
         <v>31</v>
       </c>
       <c r="H89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I89">
         <v>0.9</v>
@@ -2846,7 +2850,7 @@
         <v>357</v>
       </c>
       <c r="H90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I90">
         <v>1.1000000000000001</v>
@@ -2876,7 +2880,7 @@
         <v>28</v>
       </c>
       <c r="H91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I91">
         <v>1.05</v>
@@ -2900,7 +2904,7 @@
         <v>357</v>
       </c>
       <c r="H92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I92">
         <v>1.02</v>
@@ -2930,7 +2934,7 @@
         <v>27</v>
       </c>
       <c r="H93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I93">
         <v>1.0900000000000001</v>
@@ -2954,7 +2958,7 @@
         <v>353</v>
       </c>
       <c r="H94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I94">
         <v>1.1299999999999999</v>
@@ -2984,7 +2988,7 @@
         <v>29</v>
       </c>
       <c r="H95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I95">
         <v>1.01</v>
@@ -3008,7 +3012,7 @@
         <v>358</v>
       </c>
       <c r="H96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I96">
         <v>1.1399999999999999</v>
@@ -3038,7 +3042,7 @@
         <v>30</v>
       </c>
       <c r="H97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I97">
         <v>0.82</v>
@@ -3062,7 +3066,7 @@
         <v>351</v>
       </c>
       <c r="H98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I98">
         <v>1.05</v>
@@ -3092,7 +3096,7 @@
         <v>31</v>
       </c>
       <c r="H99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -3116,7 +3120,7 @@
         <v>354</v>
       </c>
       <c r="H100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I100">
         <v>0.95</v>
@@ -3146,7 +3150,7 @@
         <v>29</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I101">
         <v>1.1000000000000001</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/euansoutter/Desktop/npython/geopy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/euansoutter/Dropbox (Personal)/python/geopy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2C3D21-A354-AB4D-92AF-DAE82EEF8545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA5CC91-A757-184A-B437-3955DFCCFEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,7 +62,7 @@
     <t>Sheffield Formation</t>
   </si>
   <si>
-    <t>bed thickness</t>
+    <t>bed_thickness</t>
   </si>
 </sst>
 </file>
